--- a/PowerBudget.xlsx
+++ b/PowerBudget.xlsx
@@ -1,28 +1,118 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\1. University\Sea_Ice_Power_Management\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83642AB0-7633-484A-86CB-1D12C36A667C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Typ. Voltage</t>
+  </si>
+  <si>
+    <t>Max Current</t>
+  </si>
+  <si>
+    <t>Min Power (W)</t>
+  </si>
+  <si>
+    <t>Typical Power (W)</t>
+  </si>
+  <si>
+    <t>Max Power (W)</t>
+  </si>
+  <si>
+    <t>Livox AVIA</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Intel NUC</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Nucleo Board</t>
+  </si>
+  <si>
+    <t>Heating Pads</t>
+  </si>
+  <si>
+    <t>Power Distribution Circuit Power Budget</t>
+  </si>
+  <si>
+    <t>Temperature Controller Power Budget</t>
+  </si>
+  <si>
+    <t>If one heating pad used</t>
+  </si>
+  <si>
+    <t>If two heating pads used</t>
+  </si>
+  <si>
+    <t>System Power Budget</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -45,12 +135,186 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,10 +594,425 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16">
+        <v>12</v>
+      </c>
+      <c r="C3" s="17">
+        <f>F3/B3</f>
+        <v>2.5833333333333335</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="16">
+        <v>9</v>
+      </c>
+      <c r="F3" s="19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="20">
+        <v>12</v>
+      </c>
+      <c r="C4" s="21">
+        <f>4.74</f>
+        <v>4.74</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="23">
+        <f>C4*B4</f>
+        <v>56.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3">
+        <f>C5*B5</f>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
+        <f>E6/B6</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8">
+        <f>SUM(C5:C6)</f>
+        <v>1.9666666666666668</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
+        <f>F5+E6+F4+F3</f>
+        <v>111.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3">
+        <v>12</v>
+      </c>
+      <c r="C11" s="11">
+        <f>F11/B11</f>
+        <v>2.5833333333333335</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3">
+        <v>9</v>
+      </c>
+      <c r="F11" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3">
+        <v>12</v>
+      </c>
+      <c r="C12" s="11">
+        <f>4.74</f>
+        <v>4.74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="12">
+        <f>C12*B12</f>
+        <v>56.88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="13">
+        <f>SUM(C11:C12)</f>
+        <v>7.3233333333333341</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="6">
+        <f>E11+F12</f>
+        <v>65.88</v>
+      </c>
+      <c r="F13" s="15">
+        <f>F12+F11</f>
+        <v>87.88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="4">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="3">
+        <f>C18*B18</f>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="4">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5">
+        <f>E19/B19</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="3">
+        <v>20</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8">
+        <f>SUM(C18:C19)</f>
+        <v>1.9666666666666668</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6">
+        <f>E19+F18</f>
+        <v>23.6</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="4">
+        <v>12</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="3">
+        <f>C23*B23</f>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="4">
+        <v>12</v>
+      </c>
+      <c r="C24" s="5">
+        <f>E24/B24</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="3">
+        <v>40</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8">
+        <f>SUM(C23:C24)</f>
+        <v>3.6333333333333333</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
+        <f>E24+F23</f>
+        <v>43.6</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A99F025-6F9C-444B-B200-17E949686490}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
